--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-label-r5.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-label-r5.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T16:48:54+00:00</t>
+    <t>2023-10-31T17:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-label-r5.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-label-r5.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:02:35+00:00</t>
+    <t>2023-10-31T17:23:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de plusieurs titres pour l'essai</t>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de plusieurs titres pour l'essai. Cette extension implemente l'élément label de R5 https://hl7.org/fhir/researchstudy-definitions.html#ResearchStudy.label .</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-label-r5.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-label-r5.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:23:44+00:00</t>
+    <t>2023-10-31T17:39:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ResearchStudy</t>
   </si>
   <si>
     <t/>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-label-r5.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-label-r5.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:39:37+00:00</t>
+    <t>2023-10-31T17:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
